--- a/results/ce.xlsx
+++ b/results/ce.xlsx
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15646.25251349266</v>
+        <v>15470.62290791229</v>
       </c>
       <c r="C2">
-        <v>468054.4120987031</v>
+        <v>847722.6056723457</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>22148.4273940486</v>
+        <v>23739.24350645736</v>
       </c>
       <c r="C3">
-        <v>633465.6104425318</v>
+        <v>1300806.921723364</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>37868.70679675952</v>
+        <v>38346.253017191</v>
       </c>
       <c r="C4">
-        <v>991013.7372928722</v>
+        <v>2101207.282925812</v>
       </c>
     </row>
   </sheetData>

--- a/results/ce.xlsx
+++ b/results/ce.xlsx
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15470.62290791229</v>
+        <v>15755.97779219088</v>
       </c>
       <c r="C2">
-        <v>847722.6056723457</v>
+        <v>863358.8077491384</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>23739.24350645736</v>
+        <v>23775.99974660412</v>
       </c>
       <c r="C3">
-        <v>1300806.921723364</v>
+        <v>1302821.003241439</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>38346.253017191</v>
+        <v>38780.97304745853</v>
       </c>
       <c r="C4">
-        <v>2101207.282925812</v>
+        <v>2125028.043019956</v>
       </c>
     </row>
   </sheetData>

--- a/results/ce.xlsx
+++ b/results/ce.xlsx
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15755.97779219088</v>
+        <v>15052.56464127515</v>
       </c>
       <c r="C2">
-        <v>863358.8077491384</v>
+        <v>824814.8374961047</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>23775.99974660412</v>
+        <v>22348.25969763185</v>
       </c>
       <c r="C3">
-        <v>1302821.003241439</v>
+        <v>1224587.080681118</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>38780.97304745853</v>
+        <v>34777.10901857738</v>
       </c>
       <c r="C4">
-        <v>2125028.043019956</v>
+        <v>1905633.771210448</v>
       </c>
     </row>
   </sheetData>

--- a/results/ce.xlsx
+++ b/results/ce.xlsx
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15052.56464127515</v>
+        <v>13364.84712035547</v>
       </c>
       <c r="C2">
-        <v>824814.8374961047</v>
+        <v>570778.8208882479</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>22348.25969763185</v>
+        <v>21256.78294175362</v>
       </c>
       <c r="C3">
-        <v>1224587.080681118</v>
+        <v>907823.4411594858</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>34777.10901857738</v>
+        <v>27475.93170723113</v>
       </c>
       <c r="C4">
-        <v>1905633.771210448</v>
+        <v>1173427.556741277</v>
       </c>
     </row>
   </sheetData>

--- a/results/ce.xlsx
+++ b/results/ce.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Term</t>
   </si>
   <si>
     <t>Rho</t>
+  </si>
+  <si>
+    <t>Gamma</t>
   </si>
   <si>
     <t>Consumption CE</t>
@@ -372,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,7 +383,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,8 +393,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -402,10 +408,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D2" t="n">
-        <v>43232.66257408634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.25</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43241.95710990645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -416,10 +425,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D3" t="n">
-        <v>41693.07056656958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>41702.16763106628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -430,10 +442,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D4" t="n">
-        <v>39762.94667441845</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39772.4491564271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -444,10 +459,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D5" t="n">
-        <v>37883.89964520666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37894.30656080213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -458,10 +476,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D6" t="n">
-        <v>36071.77085995646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>1.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36083.40602130607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -472,10 +493,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D7" t="n">
-        <v>34307.6025907861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>34320.86443264013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -486,10 +510,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D8" t="n">
-        <v>32569.49663773348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1.75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32584.80249180405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -500,10 +527,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D9" t="n">
-        <v>30836.15998599336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30854.14826729426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -514,10 +544,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D10" t="n">
-        <v>29096.66250031157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>2.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>29087.67953651409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -528,10 +561,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D11" t="n">
-        <v>27312.82139973376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>2.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27300.5058054517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -542,10 +578,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D12" t="n">
-        <v>25473.15563399977</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>2.75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25456.34084782294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -556,10 +595,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D13" t="n">
-        <v>23561.51256302212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23538.72555411554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -570,10 +612,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D14" t="n">
-        <v>21572.24425222138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>3.25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>21541.78432339134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -584,10 +629,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D15" t="n">
-        <v>19517.66985174943</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>3.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19477.85244826978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -598,10 +646,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D16" t="n">
-        <v>17437.04576526213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>3.75</v>
+      </c>
+      <c r="E16" t="n">
+        <v>17386.94806841822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -612,10 +663,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D17" t="n">
-        <v>15392.7699868366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15332.51033454926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -626,10 +680,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D18" t="n">
-        <v>13439.60912132439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>4.25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13376.15684102306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -640,10 +697,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D19" t="n">
-        <v>11692.11139354353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>4.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11602.27750047991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -654,10 +714,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D20" t="n">
-        <v>10152.21462215343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>4.75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10039.94046630455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -668,10 +731,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D21" t="n">
-        <v>8816.766837517142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8690.05039113193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -682,10 +748,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D22" t="n">
-        <v>7745.697011305147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>5.25</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7610.501427001918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -696,10 +765,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D23" t="n">
-        <v>6822.606214633704</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>5.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6682.612514147717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -710,10 +782,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D24" t="n">
-        <v>6053.94430078308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>5.75</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5904.693550535196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -724,10 +799,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D25" t="n">
-        <v>5365.399116813259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5197.971669603168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -737,9 +815,14 @@
       <c r="C26" t="n">
         <v>0.89055403</v>
       </c>
-      <c r="D26" t="s"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4783.58418522916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -749,9 +832,12 @@
       <c r="C27" t="n">
         <v>0.89055403</v>
       </c>
-      <c r="D27" t="s"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E27" t="s"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -761,9 +847,12 @@
       <c r="C28" t="n">
         <v>0.89055403</v>
       </c>
-      <c r="D28" t="s"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E28" t="s"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -774,10 +863,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D29" t="n">
-        <v>3014.674948908012</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3081.299313918847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -788,10 +880,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D30" t="n">
-        <v>2594.815675646049</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>7.25</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2638.682870973767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -802,10 +897,13 @@
         <v>0.89055403</v>
       </c>
       <c r="D31" t="n">
-        <v>2247.527741469178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>7.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2259.526534047474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -816,10 +914,11 @@
         <v>0.89055403</v>
       </c>
       <c r="D32" t="n">
-        <v>1975.464366598546</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>7.75</v>
+      </c>
+      <c r="E32" t="s"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -830,7 +929,10 @@
         <v>0.89055403</v>
       </c>
       <c r="D33" t="n">
-        <v>1760.44016571117</v>
+        <v>8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1723.969483638602</v>
       </c>
     </row>
   </sheetData>
